--- a/Experiments_1B/02_GenerationVariation/Drop-Wave/curves.xlsx
+++ b/Experiments_1B/02_GenerationVariation/Drop-Wave/curves.xlsx
@@ -441,7 +441,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -449,7 +449,7 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -457,7 +457,7 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9712517983192491</v>
+        <v>-0.9710875143739836</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +560,7 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9928760033884022</v>
+        <v>-0.9906445174475942</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9986354676667075</v>
+        <v>-0.9988549209033512</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +576,7 @@
         <v>400</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9997315754232556</v>
+        <v>-0.999740485972337</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>500</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9999440973740172</v>
+        <v>-0.999947746602556</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         <v>600</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999890297941555</v>
+        <v>-0.9999894575806245</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +600,7 @@
         <v>700</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9999980511650608</v>
+        <v>-0.9999984034446487</v>
       </c>
     </row>
     <row r="9">
@@ -608,7 +608,7 @@
         <v>800</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9999996505378255</v>
+        <v>-0.9999996279600352</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +616,7 @@
         <v>900</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999163742198</v>
+        <v>-0.9999999182149044</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9999999838634828</v>
+        <v>-0.9999999832738972</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01167536468339776</v>
+        <v>0.01296699554921782</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.000918031061129912</v>
+        <v>-0.0002466386638118489</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004020850253559328</v>
+        <v>-0.0002953922573732155</v>
       </c>
     </row>
     <row r="5">
@@ -687,7 +687,7 @@
         <v>400</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.000105169104006622</v>
+        <v>-0.0002345325342652654</v>
       </c>
     </row>
     <row r="6">
@@ -695,7 +695,7 @@
         <v>500</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.67523315867301e-05</v>
+        <v>-3.643150963231926e-05</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
         <v>600</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.858677747978276e-05</v>
+        <v>1.911111807281497e-05</v>
       </c>
     </row>
     <row r="8">
@@ -711,7 +711,7 @@
         <v>700</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.027532960071804e-06</v>
+        <v>-1.184867948489262e-05</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         <v>800</v>
       </c>
       <c r="B9" t="n">
-        <v>3.527396445407248e-06</v>
+        <v>-1.284356423907053e-06</v>
       </c>
     </row>
     <row r="10">
@@ -727,7 +727,7 @@
         <v>900</v>
       </c>
       <c r="B10" t="n">
-        <v>2.909695217694278e-06</v>
+        <v>6.434248591695517e-06</v>
       </c>
     </row>
     <row r="11">
@@ -735,7 +735,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.049934689654163e-06</v>
+        <v>-5.947443688018925e-07</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.009697515801016004</v>
+        <v>-0.006619369912306219</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +782,7 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007282247668133246</v>
+        <v>-1.654966710742407e-05</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0003649393819410687</v>
+        <v>-0.0004130999613741494</v>
       </c>
     </row>
     <row r="5">
@@ -798,7 +798,7 @@
         <v>400</v>
       </c>
       <c r="B5" t="n">
-        <v>3.405529075179935e-06</v>
+        <v>0.0002114338270577794</v>
       </c>
     </row>
     <row r="6">
@@ -806,7 +806,7 @@
         <v>500</v>
       </c>
       <c r="B6" t="n">
-        <v>9.258229416916558e-05</v>
+        <v>2.369607790309143e-05</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +814,7 @@
         <v>600</v>
       </c>
       <c r="B7" t="n">
-        <v>7.540835487549129e-05</v>
+        <v>2.66536640248511e-05</v>
       </c>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
         <v>700</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.273793558693765e-05</v>
+        <v>6.344162864620981e-07</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +830,7 @@
         <v>800</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.568096156479248e-06</v>
+        <v>-8.433037992170222e-06</v>
       </c>
     </row>
     <row r="10">
@@ -838,7 +838,7 @@
         <v>900</v>
       </c>
       <c r="B10" t="n">
-        <v>5.442150201808262e-06</v>
+        <v>1.294620767922105e-06</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +846,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.684860276087625e-06</v>
+        <v>-7.141370872376462e-07</v>
       </c>
     </row>
   </sheetData>
